--- a/biology/Histoire de la zoologie et de la botanique/William_Baldwin_(botaniste)/William_Baldwin_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Baldwin_(botaniste)/William_Baldwin_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Baldwin est un botaniste américain, né le 29 mars 1779 à Newlin dans le comté de Chester en Pennsylvanie et mort le 1er septembre 1819 à Franklin dans le Missouri.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d’une famille de quakers, il s’oriente vers la médecine qu’il étudie à l’université de Pennsylvanie en 1802-1803 où il se lie d’amitié avec William Darlington (1782-1863). Il renonce à ses études pour devenir l’assistant du docteur William A. Todd. C’est le docteur Moses Marshall (1758-1813) qui l’initie à la botanique.
 Après avoir servi comme médecin sur un bateau naviguant sur la mer de Chine[Laquelle ?] (1805-1806), Baldwin reprend ses études en 1806-1807 et obtient son Medical Doctorat.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) William Baldwin (1779-1819), papers, biographie en anglais de l’Harvard University Herbaria</t>
         </is>
